--- a/resource/VW_AQ_EOP_SWUTR_CR.xlsx
+++ b/resource/VW_AQ_EOP_SWUTR_CR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/python/PycharmProjects^NUnitFinder/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D26A17E7-B6DA-4E21-8B51-9BE3EB11869F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F08EC69-AB13-4C52-B915-C7064F90C0C2}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,30 +1014,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="31" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,10 +1062,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,16 +1122,11 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="31" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1149,7 +1149,7 @@
     <cellStyle name="표준 7 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -1168,31 +1168,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1390,31 +1365,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1697,10 +1647,10 @@
   <dimension ref="A1:ADU74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5" style="54" customWidth="1"/>
     <col min="2" max="2" width="19.609375" style="54" customWidth="1"/>
@@ -1925,69 +1875,69 @@
       <c r="ADU1" s="45"/>
     </row>
     <row r="2" spans="1:801" s="42" customFormat="1" ht="17.350000000000001">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
       <c r="R2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="95" t="s">
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="96" t="s">
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="89" t="s">
+      <c r="AB2" s="102" t="s">
         <v>18</v>
       </c>
       <c r="XB2" s="45"/>
@@ -2159,25 +2109,25 @@
       <c r="ADU2" s="45"/>
     </row>
     <row r="3" spans="1:801" s="42" customFormat="1" ht="39" customHeight="1">
-      <c r="B3" s="88"/>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="87" t="s">
+      <c r="P3" s="91" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="47" t="s">
@@ -2192,7 +2142,7 @@
       <c r="T3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="91" t="s">
+      <c r="U3" s="104" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="48" t="s">
@@ -2207,9 +2157,9 @@
       <c r="Y3" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="90"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="103"/>
       <c r="XB3" s="45"/>
       <c r="XC3" s="45"/>
       <c r="XD3" s="45"/>
@@ -2379,21 +2329,21 @@
       <c r="ADU3" s="45"/>
     </row>
     <row r="4" spans="1:801" s="42" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
       <c r="Q4" s="49">
         <f>SUM(Q5:Q6)</f>
         <v>0</v>
@@ -2410,7 +2360,7 @@
         <f>SUM(T5:T6)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="92"/>
+      <c r="U4" s="105"/>
       <c r="V4" s="48" t="str">
         <f>IFERROR(W4/X4,"N/A")</f>
         <v>N/A</v>
@@ -2423,10 +2373,10 @@
         <f>SUM(X5:X6)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="90"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="103"/>
       <c r="XB4" s="45"/>
       <c r="XC4" s="45"/>
       <c r="XD4" s="45"/>
@@ -2595,8 +2545,8 @@
       <c r="ADQ4" s="45"/>
       <c r="ADU4" s="45"/>
     </row>
-    <row r="5" spans="1:801">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:801" ht="15" customHeight="1">
+      <c r="A5" s="90"/>
       <c r="B5" s="73"/>
       <c r="C5" s="86"/>
       <c r="D5" s="74"/>
@@ -2633,8 +2583,8 @@
       <c r="AA5" s="39"/>
       <c r="AB5" s="53"/>
     </row>
-    <row r="6" spans="1:801">
-      <c r="A6" s="94"/>
+    <row r="6" spans="1:801" ht="15" customHeight="1">
+      <c r="A6" s="90"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
       <c r="D6" s="74"/>
@@ -2671,7 +2621,7 @@
       <c r="AA6" s="39"/>
       <c r="AB6" s="53"/>
     </row>
-    <row r="7" spans="1:801">
+    <row r="7" spans="1:801" ht="15" customHeight="1">
       <c r="A7" s="55"/>
       <c r="B7" s="73"/>
       <c r="C7" s="74"/>
@@ -2708,7 +2658,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
     </row>
-    <row r="8" spans="1:801">
+    <row r="8" spans="1:801" ht="15" customHeight="1">
       <c r="A8" s="55"/>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -2745,7 +2695,7 @@
       <c r="Z8" s="59"/>
       <c r="AA8" s="60"/>
     </row>
-    <row r="9" spans="1:801">
+    <row r="9" spans="1:801" ht="15" customHeight="1">
       <c r="A9" s="55"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -2782,7 +2732,7 @@
       <c r="Z9" s="59"/>
       <c r="AA9" s="56"/>
     </row>
-    <row r="10" spans="1:801">
+    <row r="10" spans="1:801" ht="15" customHeight="1">
       <c r="A10" s="55"/>
       <c r="B10" s="74"/>
       <c r="C10" s="78"/>
@@ -2819,7 +2769,7 @@
       <c r="Z10" s="59"/>
       <c r="AA10" s="38"/>
     </row>
-    <row r="11" spans="1:801" hidden="1">
+    <row r="11" spans="1:801" ht="15" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="74"/>
       <c r="C11" s="78"/>
@@ -2856,7 +2806,7 @@
       <c r="Z11" s="59"/>
       <c r="AA11" s="38"/>
     </row>
-    <row r="12" spans="1:801">
+    <row r="12" spans="1:801" ht="15" customHeight="1">
       <c r="A12" s="55"/>
       <c r="B12" s="74"/>
       <c r="C12" s="84"/>
@@ -2893,7 +2843,7 @@
       <c r="Z12" s="59"/>
       <c r="AA12" s="38"/>
     </row>
-    <row r="13" spans="1:801">
+    <row r="13" spans="1:801" ht="15" customHeight="1">
       <c r="A13" s="55"/>
       <c r="B13" s="84"/>
       <c r="C13" s="74"/>
@@ -2930,7 +2880,7 @@
       <c r="Z13" s="41"/>
       <c r="AA13" s="38"/>
     </row>
-    <row r="14" spans="1:801">
+    <row r="14" spans="1:801" ht="15" customHeight="1">
       <c r="A14" s="55"/>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
@@ -2967,7 +2917,7 @@
       <c r="Z14" s="41"/>
       <c r="AA14" s="38"/>
     </row>
-    <row r="15" spans="1:801">
+    <row r="15" spans="1:801" ht="15" customHeight="1">
       <c r="A15" s="55"/>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
@@ -3004,7 +2954,7 @@
       <c r="Z15" s="41"/>
       <c r="AA15" s="38"/>
     </row>
-    <row r="16" spans="1:801">
+    <row r="16" spans="1:801" ht="15" customHeight="1">
       <c r="A16" s="55"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3041,7 +2991,7 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
     </row>
-    <row r="17" spans="1:731">
+    <row r="17" spans="1:731" ht="15" customHeight="1">
       <c r="A17" s="55"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3078,7 +3028,7 @@
       <c r="Z17" s="41"/>
       <c r="AA17" s="38"/>
     </row>
-    <row r="18" spans="1:731">
+    <row r="18" spans="1:731" ht="15" customHeight="1">
       <c r="A18" s="55"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3115,7 +3065,7 @@
       <c r="Z18" s="41"/>
       <c r="AA18" s="38"/>
     </row>
-    <row r="19" spans="1:731">
+    <row r="19" spans="1:731" ht="15" customHeight="1">
       <c r="A19" s="55"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -3152,7 +3102,7 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
     </row>
-    <row r="20" spans="1:731">
+    <row r="20" spans="1:731" ht="15" customHeight="1">
       <c r="A20" s="55"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -3189,7 +3139,7 @@
       <c r="Z20" s="41"/>
       <c r="AA20" s="38"/>
     </row>
-    <row r="21" spans="1:731">
+    <row r="21" spans="1:731" ht="15" customHeight="1">
       <c r="A21" s="55"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -3226,7 +3176,7 @@
       <c r="Z21" s="41"/>
       <c r="AA21" s="38"/>
     </row>
-    <row r="22" spans="1:731">
+    <row r="22" spans="1:731" ht="15" customHeight="1">
       <c r="A22" s="55"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -3263,7 +3213,7 @@
       <c r="Z22" s="41"/>
       <c r="AA22" s="38"/>
     </row>
-    <row r="23" spans="1:731">
+    <row r="23" spans="1:731" ht="15" customHeight="1">
       <c r="A23" s="55"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -3300,7 +3250,7 @@
       <c r="Z23" s="41"/>
       <c r="AA23" s="38"/>
     </row>
-    <row r="24" spans="1:731">
+    <row r="24" spans="1:731" ht="15" customHeight="1">
       <c r="A24" s="55"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
@@ -3326,18 +3276,18 @@
       </c>
       <c r="P24" s="74"/>
       <c r="Q24" s="74"/>
-      <c r="R24" s="121"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
-      <c r="V24" s="121"/>
+      <c r="V24" s="87"/>
       <c r="W24" s="74"/>
       <c r="X24" s="74"/>
       <c r="Y24" s="74"/>
-      <c r="Z24" s="122"/>
+      <c r="Z24" s="88"/>
       <c r="AA24" s="74"/>
     </row>
-    <row r="25" spans="1:731">
+    <row r="25" spans="1:731" ht="15" customHeight="1">
       <c r="A25" s="55"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -3363,18 +3313,18 @@
       </c>
       <c r="P25" s="74"/>
       <c r="Q25" s="74"/>
-      <c r="R25" s="121"/>
+      <c r="R25" s="87"/>
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
-      <c r="V25" s="121"/>
+      <c r="V25" s="87"/>
       <c r="W25" s="74"/>
       <c r="X25" s="74"/>
       <c r="Y25" s="74"/>
-      <c r="Z25" s="122"/>
+      <c r="Z25" s="88"/>
       <c r="AA25" s="74"/>
     </row>
-    <row r="26" spans="1:731">
+    <row r="26" spans="1:731" ht="15" customHeight="1">
       <c r="A26" s="55"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -3400,18 +3350,18 @@
       </c>
       <c r="P26" s="74"/>
       <c r="Q26" s="74"/>
-      <c r="R26" s="121"/>
+      <c r="R26" s="87"/>
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
-      <c r="V26" s="121"/>
+      <c r="V26" s="87"/>
       <c r="W26" s="74"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
-      <c r="Z26" s="122"/>
+      <c r="Z26" s="88"/>
       <c r="AA26" s="74"/>
     </row>
-    <row r="27" spans="1:731">
+    <row r="27" spans="1:731" ht="15" customHeight="1">
       <c r="A27" s="55"/>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
@@ -3437,15 +3387,15 @@
       </c>
       <c r="P27" s="74"/>
       <c r="Q27" s="74"/>
-      <c r="R27" s="121"/>
+      <c r="R27" s="87"/>
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
-      <c r="V27" s="121"/>
+      <c r="V27" s="87"/>
       <c r="W27" s="74"/>
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
-      <c r="Z27" s="122"/>
+      <c r="Z27" s="88"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
@@ -4052,7 +4002,7 @@
       <c r="ABB27" s="55"/>
       <c r="ABC27" s="55"/>
     </row>
-    <row r="28" spans="1:731">
+    <row r="28" spans="1:731" ht="15" customHeight="1">
       <c r="A28" s="55"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
@@ -4078,15 +4028,15 @@
       </c>
       <c r="P28" s="74"/>
       <c r="Q28" s="74"/>
-      <c r="R28" s="121"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
-      <c r="V28" s="121"/>
+      <c r="V28" s="87"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
       <c r="Y28" s="74"/>
-      <c r="Z28" s="122"/>
+      <c r="Z28" s="88"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="55"/>
       <c r="AC28" s="55"/>
@@ -4693,7 +4643,7 @@
       <c r="ABB28" s="55"/>
       <c r="ABC28" s="55"/>
     </row>
-    <row r="29" spans="1:731">
+    <row r="29" spans="1:731" ht="15" customHeight="1">
       <c r="A29" s="55"/>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
@@ -4727,7 +4677,7 @@
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
-      <c r="Z29" s="122"/>
+      <c r="Z29" s="88"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="55"/>
       <c r="AC29" s="55"/>
@@ -5334,7 +5284,7 @@
       <c r="ABB29" s="55"/>
       <c r="ABC29" s="55"/>
     </row>
-    <row r="30" spans="1:731">
+    <row r="30" spans="1:731" ht="15" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
@@ -5360,15 +5310,15 @@
       </c>
       <c r="P30" s="74"/>
       <c r="Q30" s="74"/>
-      <c r="R30" s="121"/>
+      <c r="R30" s="87"/>
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
       <c r="Y30" s="74"/>
-      <c r="Z30" s="122"/>
+      <c r="Z30" s="88"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="55"/>
       <c r="AC30" s="55"/>
@@ -5975,7 +5925,7 @@
       <c r="ABB30" s="55"/>
       <c r="ABC30" s="55"/>
     </row>
-    <row r="31" spans="1:731">
+    <row r="31" spans="1:731" ht="15" customHeight="1">
       <c r="A31" s="55"/>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
@@ -6001,15 +5951,15 @@
       </c>
       <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
-      <c r="R31" s="121"/>
+      <c r="R31" s="87"/>
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
       <c r="Y31" s="74"/>
-      <c r="Z31" s="122"/>
+      <c r="Z31" s="88"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="55"/>
       <c r="AC31" s="55"/>
@@ -6616,7 +6566,7 @@
       <c r="ABB31" s="55"/>
       <c r="ABC31" s="55"/>
     </row>
-    <row r="32" spans="1:731">
+    <row r="32" spans="1:731" ht="15" customHeight="1">
       <c r="A32" s="55"/>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
@@ -7257,7 +7207,7 @@
       <c r="ABB32" s="55"/>
       <c r="ABC32" s="55"/>
     </row>
-    <row r="33" spans="1:731">
+    <row r="33" spans="1:731" ht="15" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
@@ -7283,15 +7233,15 @@
       </c>
       <c r="P33" s="74"/>
       <c r="Q33" s="74"/>
-      <c r="R33" s="121"/>
+      <c r="R33" s="87"/>
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
       <c r="Y33" s="74"/>
-      <c r="Z33" s="122"/>
+      <c r="Z33" s="88"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="55"/>
       <c r="AC33" s="55"/>
@@ -7898,7 +7848,7 @@
       <c r="ABB33" s="55"/>
       <c r="ABC33" s="55"/>
     </row>
-    <row r="34" spans="1:731">
+    <row r="34" spans="1:731" ht="15" customHeight="1">
       <c r="A34" s="55"/>
       <c r="B34" s="74"/>
       <c r="C34" s="74"/>
@@ -7924,15 +7874,15 @@
       </c>
       <c r="P34" s="74"/>
       <c r="Q34" s="74"/>
-      <c r="R34" s="121"/>
+      <c r="R34" s="87"/>
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="123"/>
-      <c r="X34" s="123"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
       <c r="Y34" s="74"/>
-      <c r="Z34" s="122"/>
+      <c r="Z34" s="88"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="55"/>
       <c r="AC34" s="55"/>
@@ -8539,7 +8489,7 @@
       <c r="ABB34" s="55"/>
       <c r="ABC34" s="55"/>
     </row>
-    <row r="35" spans="1:731">
+    <row r="35" spans="1:731" ht="15" customHeight="1">
       <c r="A35" s="55"/>
       <c r="B35" s="74"/>
       <c r="C35" s="74"/>
@@ -8565,15 +8515,15 @@
       </c>
       <c r="P35" s="74"/>
       <c r="Q35" s="74"/>
-      <c r="R35" s="121"/>
+      <c r="R35" s="87"/>
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="123"/>
-      <c r="X35" s="123"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
       <c r="Y35" s="74"/>
-      <c r="Z35" s="122"/>
+      <c r="Z35" s="88"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="55"/>
       <c r="AC35" s="55"/>
@@ -9180,7 +9130,7 @@
       <c r="ABB35" s="55"/>
       <c r="ABC35" s="55"/>
     </row>
-    <row r="36" spans="1:731">
+    <row r="36" spans="1:731" ht="15" customHeight="1">
       <c r="A36" s="55"/>
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
@@ -9206,15 +9156,15 @@
       </c>
       <c r="P36" s="74"/>
       <c r="Q36" s="74"/>
-      <c r="R36" s="121"/>
+      <c r="R36" s="87"/>
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="123"/>
-      <c r="X36" s="123"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
       <c r="Y36" s="74"/>
-      <c r="Z36" s="122"/>
+      <c r="Z36" s="88"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="55"/>
       <c r="AC36" s="55"/>
@@ -9821,7 +9771,7 @@
       <c r="ABB36" s="55"/>
       <c r="ABC36" s="55"/>
     </row>
-    <row r="37" spans="1:731">
+    <row r="37" spans="1:731" ht="15" customHeight="1">
       <c r="A37" s="55"/>
       <c r="B37" s="74"/>
       <c r="C37" s="74"/>
@@ -10462,7 +10412,7 @@
       <c r="ABB37" s="55"/>
       <c r="ABC37" s="55"/>
     </row>
-    <row r="38" spans="1:731">
+    <row r="38" spans="1:731" ht="15" customHeight="1">
       <c r="A38" s="55"/>
       <c r="B38" s="74"/>
       <c r="C38" s="74"/>
@@ -10488,15 +10438,15 @@
       </c>
       <c r="P38" s="74"/>
       <c r="Q38" s="74"/>
-      <c r="R38" s="121"/>
+      <c r="R38" s="87"/>
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
-      <c r="V38" s="121"/>
-      <c r="W38" s="123"/>
-      <c r="X38" s="123"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
       <c r="Y38" s="74"/>
-      <c r="Z38" s="122"/>
+      <c r="Z38" s="88"/>
       <c r="AA38" s="74"/>
       <c r="AB38" s="55"/>
       <c r="AC38" s="55"/>
@@ -11103,7 +11053,7 @@
       <c r="ABB38" s="55"/>
       <c r="ABC38" s="55"/>
     </row>
-    <row r="39" spans="1:731">
+    <row r="39" spans="1:731" ht="15" customHeight="1">
       <c r="A39" s="55"/>
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
@@ -11736,7 +11686,7 @@
       <c r="ABB39" s="55"/>
       <c r="ABC39" s="55"/>
     </row>
-    <row r="40" spans="1:731">
+    <row r="40" spans="1:731" ht="15" customHeight="1">
       <c r="A40" s="55"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -12369,7 +12319,7 @@
       <c r="ABB40" s="55"/>
       <c r="ABC40" s="55"/>
     </row>
-    <row r="41" spans="1:731">
+    <row r="41" spans="1:731" ht="15" customHeight="1">
       <c r="A41" s="55"/>
       <c r="B41" s="61"/>
       <c r="C41" s="61"/>
@@ -13002,7 +12952,7 @@
       <c r="ABB41" s="55"/>
       <c r="ABC41" s="55"/>
     </row>
-    <row r="42" spans="1:731">
+    <row r="42" spans="1:731" ht="15" customHeight="1">
       <c r="A42" s="55"/>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -13635,7 +13585,7 @@
       <c r="ABB42" s="55"/>
       <c r="ABC42" s="55"/>
     </row>
-    <row r="43" spans="1:731">
+    <row r="43" spans="1:731" ht="15" customHeight="1">
       <c r="A43" s="55"/>
       <c r="B43" s="61"/>
       <c r="C43" s="61"/>
@@ -14268,7 +14218,7 @@
       <c r="ABB43" s="55"/>
       <c r="ABC43" s="55"/>
     </row>
-    <row r="44" spans="1:731">
+    <row r="44" spans="1:731" ht="15" customHeight="1">
       <c r="A44" s="55"/>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
@@ -14901,7 +14851,7 @@
       <c r="ABB44" s="55"/>
       <c r="ABC44" s="55"/>
     </row>
-    <row r="45" spans="1:731">
+    <row r="45" spans="1:731" ht="15" customHeight="1">
       <c r="A45" s="55"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -15534,7 +15484,7 @@
       <c r="ABB45" s="55"/>
       <c r="ABC45" s="55"/>
     </row>
-    <row r="46" spans="1:731">
+    <row r="46" spans="1:731" ht="15" customHeight="1">
       <c r="A46" s="55"/>
       <c r="B46" s="61"/>
       <c r="C46" s="61"/>
@@ -16167,7 +16117,7 @@
       <c r="ABB46" s="55"/>
       <c r="ABC46" s="55"/>
     </row>
-    <row r="47" spans="1:731">
+    <row r="47" spans="1:731" ht="15" customHeight="1">
       <c r="A47" s="55"/>
       <c r="B47" s="61"/>
       <c r="C47" s="61"/>
@@ -16800,7 +16750,7 @@
       <c r="ABB47" s="55"/>
       <c r="ABC47" s="55"/>
     </row>
-    <row r="48" spans="1:731">
+    <row r="48" spans="1:731" ht="15" customHeight="1">
       <c r="A48" s="55"/>
       <c r="B48" s="61"/>
       <c r="C48" s="61"/>
@@ -17433,7 +17383,7 @@
       <c r="ABB48" s="55"/>
       <c r="ABC48" s="55"/>
     </row>
-    <row r="49" spans="1:731">
+    <row r="49" spans="1:731" ht="15" customHeight="1">
       <c r="A49" s="55"/>
       <c r="B49" s="61"/>
       <c r="C49" s="61"/>
@@ -18066,7 +18016,7 @@
       <c r="ABB49" s="55"/>
       <c r="ABC49" s="55"/>
     </row>
-    <row r="50" spans="1:731">
+    <row r="50" spans="1:731" ht="15" customHeight="1">
       <c r="A50" s="55"/>
       <c r="B50" s="61"/>
       <c r="C50" s="61"/>
@@ -18699,7 +18649,7 @@
       <c r="ABB50" s="55"/>
       <c r="ABC50" s="55"/>
     </row>
-    <row r="51" spans="1:731">
+    <row r="51" spans="1:731" ht="15" customHeight="1">
       <c r="A51" s="55"/>
       <c r="B51" s="61"/>
       <c r="C51" s="61"/>
@@ -19332,7 +19282,7 @@
       <c r="ABB51" s="55"/>
       <c r="ABC51" s="55"/>
     </row>
-    <row r="52" spans="1:731">
+    <row r="52" spans="1:731" ht="15" customHeight="1">
       <c r="A52" s="55"/>
       <c r="B52" s="61"/>
       <c r="C52" s="61"/>
@@ -19965,7 +19915,7 @@
       <c r="ABB52" s="55"/>
       <c r="ABC52" s="55"/>
     </row>
-    <row r="53" spans="1:731">
+    <row r="53" spans="1:731" ht="15" customHeight="1">
       <c r="A53" s="55"/>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
@@ -20598,7 +20548,7 @@
       <c r="ABB53" s="55"/>
       <c r="ABC53" s="55"/>
     </row>
-    <row r="54" spans="1:731">
+    <row r="54" spans="1:731" ht="15" customHeight="1">
       <c r="A54" s="55"/>
       <c r="B54" s="61"/>
       <c r="C54" s="61"/>
@@ -21231,7 +21181,7 @@
       <c r="ABB54" s="55"/>
       <c r="ABC54" s="55"/>
     </row>
-    <row r="55" spans="1:731">
+    <row r="55" spans="1:731" ht="15" customHeight="1">
       <c r="A55" s="55"/>
       <c r="B55" s="61"/>
       <c r="C55" s="61"/>
@@ -21864,7 +21814,7 @@
       <c r="ABB55" s="55"/>
       <c r="ABC55" s="55"/>
     </row>
-    <row r="56" spans="1:731">
+    <row r="56" spans="1:731" ht="15" customHeight="1">
       <c r="A56" s="55"/>
       <c r="B56" s="61"/>
       <c r="C56" s="61"/>
@@ -22497,7 +22447,7 @@
       <c r="ABB56" s="55"/>
       <c r="ABC56" s="55"/>
     </row>
-    <row r="57" spans="1:731">
+    <row r="57" spans="1:731" ht="15" customHeight="1">
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
       <c r="D57" s="61"/>
@@ -22525,7 +22475,7 @@
       <c r="Z57" s="70"/>
       <c r="AA57" s="70"/>
     </row>
-    <row r="58" spans="1:731">
+    <row r="58" spans="1:731" ht="15" customHeight="1">
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
       <c r="D58" s="61"/>
@@ -22553,7 +22503,7 @@
       <c r="Z58" s="70"/>
       <c r="AA58" s="70"/>
     </row>
-    <row r="59" spans="1:731">
+    <row r="59" spans="1:731" ht="15" customHeight="1">
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
       <c r="D59" s="61"/>
@@ -22581,7 +22531,7 @@
       <c r="Z59" s="70"/>
       <c r="AA59" s="70"/>
     </row>
-    <row r="60" spans="1:731">
+    <row r="60" spans="1:731" ht="15" customHeight="1">
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
       <c r="D60" s="61"/>
@@ -22609,7 +22559,7 @@
       <c r="Z60" s="70"/>
       <c r="AA60" s="70"/>
     </row>
-    <row r="61" spans="1:731">
+    <row r="61" spans="1:731" ht="15" customHeight="1">
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
       <c r="D61" s="61"/>
@@ -22637,7 +22587,7 @@
       <c r="Z61" s="70"/>
       <c r="AA61" s="70"/>
     </row>
-    <row r="62" spans="1:731">
+    <row r="62" spans="1:731" ht="15" customHeight="1">
       <c r="B62" s="70"/>
       <c r="C62" s="70"/>
       <c r="D62" s="61"/>
@@ -22665,7 +22615,7 @@
       <c r="Z62" s="70"/>
       <c r="AA62" s="70"/>
     </row>
-    <row r="63" spans="1:731">
+    <row r="63" spans="1:731" ht="15" customHeight="1">
       <c r="B63" s="70"/>
       <c r="C63" s="70"/>
       <c r="D63" s="61"/>
@@ -22693,7 +22643,7 @@
       <c r="Z63" s="70"/>
       <c r="AA63" s="70"/>
     </row>
-    <row r="64" spans="1:731">
+    <row r="64" spans="1:731" ht="15" customHeight="1">
       <c r="B64" s="70"/>
       <c r="C64" s="70"/>
       <c r="D64" s="61"/>
@@ -22721,7 +22671,7 @@
       <c r="Z64" s="70"/>
       <c r="AA64" s="70"/>
     </row>
-    <row r="65" spans="2:27">
+    <row r="65" spans="2:27" ht="15" customHeight="1">
       <c r="B65" s="70"/>
       <c r="C65" s="70"/>
       <c r="D65" s="61"/>
@@ -22749,7 +22699,7 @@
       <c r="Z65" s="70"/>
       <c r="AA65" s="70"/>
     </row>
-    <row r="66" spans="2:27">
+    <row r="66" spans="2:27" ht="15" customHeight="1">
       <c r="B66" s="70"/>
       <c r="C66" s="70"/>
       <c r="D66" s="61"/>
@@ -22777,7 +22727,7 @@
       <c r="Z66" s="70"/>
       <c r="AA66" s="70"/>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:27" ht="15" customHeight="1">
       <c r="B67" s="70"/>
       <c r="C67" s="70"/>
       <c r="D67" s="61"/>
@@ -22805,7 +22755,7 @@
       <c r="Z67" s="70"/>
       <c r="AA67" s="70"/>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:27" ht="15" customHeight="1">
       <c r="B68" s="70"/>
       <c r="C68" s="70"/>
       <c r="D68" s="61"/>
@@ -22833,7 +22783,7 @@
       <c r="Z68" s="70"/>
       <c r="AA68" s="70"/>
     </row>
-    <row r="69" spans="2:27">
+    <row r="69" spans="2:27" ht="15" customHeight="1">
       <c r="B69" s="70"/>
       <c r="C69" s="70"/>
       <c r="D69" s="61"/>
@@ -22861,7 +22811,7 @@
       <c r="Z69" s="70"/>
       <c r="AA69" s="70"/>
     </row>
-    <row r="70" spans="2:27">
+    <row r="70" spans="2:27" ht="15" customHeight="1">
       <c r="B70" s="70"/>
       <c r="C70" s="70"/>
       <c r="D70" s="61"/>
@@ -22889,7 +22839,7 @@
       <c r="Z70" s="70"/>
       <c r="AA70" s="70"/>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:27" ht="15" customHeight="1">
       <c r="B71" s="70"/>
       <c r="C71" s="70"/>
       <c r="D71" s="61"/>
@@ -22917,7 +22867,7 @@
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:27" ht="15" customHeight="1">
       <c r="B72" s="70"/>
       <c r="C72" s="70"/>
       <c r="D72" s="61"/>
@@ -22945,7 +22895,7 @@
       <c r="Z72" s="70"/>
       <c r="AA72" s="70"/>
     </row>
-    <row r="73" spans="2:27">
+    <row r="73" spans="2:27" ht="15" customHeight="1">
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="D73" s="61"/>
@@ -22973,7 +22923,7 @@
       <c r="Z73" s="70"/>
       <c r="AA73" s="70"/>
     </row>
-    <row r="74" spans="2:27">
+    <row r="74" spans="2:27" ht="15" customHeight="1">
       <c r="B74" s="70"/>
       <c r="C74" s="70"/>
       <c r="D74" s="61"/>
@@ -23003,6 +22953,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:U2"/>
@@ -23019,101 +22977,93 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="U8 Y8 P8:P11">
-    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:O48">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O50">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O38">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23170,15 +23120,15 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -23186,11 +23136,11 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -23204,83 +23154,83 @@
     <row r="5" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1"/>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="36"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="103" t="s">
+      <c r="O6" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="122" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="36"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="122" t="s">
         <v>54</v>
       </c>
     </row>
@@ -24178,13 +24128,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -24195,6 +24138,13 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I8:J8">

--- a/resource/VW_AQ_EOP_SWUTR_CR.xlsx
+++ b/resource/VW_AQ_EOP_SWUTR_CR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F08EC69-AB13-4C52-B915-C7064F90C0C2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E92736-24E7-42DB-9EB7-77DB4D75632B}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +995,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1127,6 +1124,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1646,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1013615-36E9-4D8E-8BB1-41A24C0C11CC}">
   <dimension ref="A1:ADU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1875,69 +1884,69 @@
       <c r="ADU1" s="45"/>
     </row>
     <row r="2" spans="1:801" s="42" customFormat="1" ht="17.350000000000001">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93" t="s">
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="94" t="s">
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="95" t="s">
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="91" t="s">
+      <c r="AA2" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="102" t="s">
+      <c r="AB2" s="101" t="s">
         <v>18</v>
       </c>
       <c r="XB2" s="45"/>
@@ -2109,25 +2118,25 @@
       <c r="ADU2" s="45"/>
     </row>
     <row r="3" spans="1:801" s="42" customFormat="1" ht="39" customHeight="1">
-      <c r="B3" s="92"/>
-      <c r="C3" s="91" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="P3" s="90" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="47" t="s">
@@ -2142,7 +2151,7 @@
       <c r="T3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="104" t="s">
+      <c r="U3" s="103" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="48" t="s">
@@ -2154,12 +2163,12 @@
       <c r="X3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="93" t="s">
+      <c r="Y3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="103"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="102"/>
       <c r="XB3" s="45"/>
       <c r="XC3" s="45"/>
       <c r="XD3" s="45"/>
@@ -2329,23 +2338,23 @@
       <c r="ADU3" s="45"/>
     </row>
     <row r="4" spans="1:801" s="42" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
       <c r="Q4" s="49">
-        <f>SUM(Q5:Q6)</f>
+        <f>SUM(Q5:Q38)</f>
         <v>0</v>
       </c>
       <c r="R4" s="48" t="str">
@@ -2353,30 +2362,30 @@
         <v>N/A</v>
       </c>
       <c r="S4" s="49">
-        <f>SUM(S5:S6)</f>
+        <f>SUM(S5:S38)</f>
         <v>0</v>
       </c>
       <c r="T4" s="49">
-        <f>SUM(T5:T6)</f>
+        <f>SUM(T5:T38)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="105"/>
+      <c r="U4" s="104"/>
       <c r="V4" s="48" t="str">
         <f>IFERROR(W4/X4,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="W4" s="49">
-        <f>SUM(W5:W6)</f>
+        <f>SUM(W5:W38)</f>
         <v>0</v>
       </c>
       <c r="X4" s="49">
-        <f>SUM(X5:X6)</f>
+        <f>SUM(X5:X38)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="103"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="102"/>
       <c r="XB4" s="45"/>
       <c r="XC4" s="45"/>
       <c r="XD4" s="45"/>
@@ -2546,15 +2555,18 @@
       <c r="ADU4" s="45"/>
     </row>
     <row r="5" spans="1:801" ht="15" customHeight="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="73"/>
-      <c r="C5" s="86"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="74"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="I5" s="73" t="str">
+        <f>$B5&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
       <c r="J5" s="75"/>
       <c r="K5" s="76"/>
       <c r="L5" s="73"/>
@@ -2584,7 +2596,7 @@
       <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="1:801" ht="15" customHeight="1">
-      <c r="A6" s="90"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
       <c r="D6" s="74"/>
@@ -2592,7 +2604,10 @@
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="I6" s="73" t="str">
+        <f t="shared" ref="I6:I38" si="1">$B6&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
       <c r="J6" s="75"/>
       <c r="K6" s="77"/>
       <c r="L6" s="73"/>
@@ -2630,7 +2645,10 @@
       <c r="F7" s="73"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J7" s="75"/>
       <c r="K7" s="77"/>
       <c r="L7" s="74"/>
@@ -2647,11 +2665,11 @@
       </c>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+      <c r="R7" s="123"/>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
       <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
+      <c r="V7" s="123"/>
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
@@ -2667,10 +2685,13 @@
       <c r="F8" s="73"/>
       <c r="G8" s="78"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="I8" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J8" s="80"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="73" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2704,10 +2725,13 @@
       <c r="F9" s="73"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="81"/>
+      <c r="I9" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J9" s="80"/>
       <c r="K9" s="78"/>
-      <c r="L9" s="83"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="73" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2741,10 +2765,13 @@
       <c r="F10" s="73"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J10" s="80"/>
       <c r="K10" s="78"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="73" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2778,10 +2805,13 @@
       <c r="F11" s="73"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="74"/>
+      <c r="I11" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J11" s="78"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="73" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2809,13 +2839,16 @@
     <row r="12" spans="1:801" ht="15" customHeight="1">
       <c r="A12" s="55"/>
       <c r="B12" s="74"/>
-      <c r="C12" s="84"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="79"/>
-      <c r="E12" s="85"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="73"/>
       <c r="G12" s="78"/>
       <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="I12" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J12" s="80"/>
       <c r="K12" s="78"/>
       <c r="L12" s="74"/>
@@ -2845,16 +2878,19 @@
     </row>
     <row r="13" spans="1:801" ht="15" customHeight="1">
       <c r="A13" s="55"/>
-      <c r="B13" s="84"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
       <c r="F13" s="73"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="I13" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J13" s="80"/>
-      <c r="K13" s="82"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="74"/>
       <c r="M13" s="73" t="str">
         <f t="shared" si="0"/>
@@ -2889,7 +2925,10 @@
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="I14" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J14" s="80"/>
       <c r="K14" s="78"/>
       <c r="L14" s="74"/>
@@ -2926,7 +2965,10 @@
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="I15" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J15" s="80"/>
       <c r="K15" s="78"/>
       <c r="L15" s="74"/>
@@ -2963,7 +3005,10 @@
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="74"/>
@@ -2980,11 +3025,11 @@
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="123"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="V16" s="123"/>
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
@@ -3000,9 +3045,12 @@
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="I17" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J17" s="80"/>
-      <c r="K17" s="82"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="74"/>
       <c r="M17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -3017,7 +3065,7 @@
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="52"/>
+      <c r="R17" s="124"/>
       <c r="S17" s="52"/>
       <c r="T17" s="52"/>
       <c r="U17" s="38"/>
@@ -3037,9 +3085,12 @@
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J18" s="80"/>
-      <c r="K18" s="82"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="74"/>
       <c r="M18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -3074,7 +3125,10 @@
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="74"/>
@@ -3091,11 +3145,11 @@
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
+      <c r="R19" s="123"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="V19" s="123"/>
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -3111,7 +3165,10 @@
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="I20" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J20" s="80"/>
       <c r="K20" s="78"/>
       <c r="L20" s="74"/>
@@ -3148,16 +3205,19 @@
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J21" s="80"/>
-      <c r="K21" s="82"/>
+      <c r="K21" s="81"/>
       <c r="L21" s="74"/>
       <c r="M21" s="73" t="str">
-        <f t="shared" ref="M21:N36" si="1">$B21&amp;".xls"</f>
+        <f t="shared" ref="M21:N36" si="2">$B21&amp;".xls"</f>
         <v>.xls</v>
       </c>
       <c r="N21" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O21" s="50" t="s">
@@ -3185,16 +3245,19 @@
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="I22" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J22" s="80"/>
       <c r="K22" s="78"/>
       <c r="L22" s="74"/>
       <c r="M22" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N22" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O22" s="50" t="s">
@@ -3222,16 +3285,19 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J23" s="80"/>
       <c r="K23" s="78"/>
       <c r="L23" s="74"/>
       <c r="M23" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N23" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O23" s="50" t="s">
@@ -3259,16 +3325,19 @@
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J24" s="80"/>
       <c r="K24" s="78"/>
       <c r="L24" s="74"/>
       <c r="M24" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N24" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O24" s="50" t="s">
@@ -3276,15 +3345,15 @@
       </c>
       <c r="P24" s="74"/>
       <c r="Q24" s="74"/>
-      <c r="R24" s="87"/>
+      <c r="R24" s="86"/>
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
-      <c r="V24" s="87"/>
+      <c r="V24" s="86"/>
       <c r="W24" s="74"/>
       <c r="X24" s="74"/>
       <c r="Y24" s="74"/>
-      <c r="Z24" s="88"/>
+      <c r="Z24" s="87"/>
       <c r="AA24" s="74"/>
     </row>
     <row r="25" spans="1:731" ht="15" customHeight="1">
@@ -3296,16 +3365,19 @@
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J25" s="80"/>
       <c r="K25" s="78"/>
       <c r="L25" s="74"/>
       <c r="M25" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N25" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O25" s="50" t="s">
@@ -3313,15 +3385,15 @@
       </c>
       <c r="P25" s="74"/>
       <c r="Q25" s="74"/>
-      <c r="R25" s="87"/>
+      <c r="R25" s="86"/>
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
-      <c r="V25" s="87"/>
+      <c r="V25" s="86"/>
       <c r="W25" s="74"/>
       <c r="X25" s="74"/>
       <c r="Y25" s="74"/>
-      <c r="Z25" s="88"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="74"/>
     </row>
     <row r="26" spans="1:731" ht="15" customHeight="1">
@@ -3333,16 +3405,19 @@
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J26" s="80"/>
       <c r="K26" s="78"/>
       <c r="L26" s="74"/>
       <c r="M26" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N26" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O26" s="50" t="s">
@@ -3350,15 +3425,15 @@
       </c>
       <c r="P26" s="74"/>
       <c r="Q26" s="74"/>
-      <c r="R26" s="87"/>
+      <c r="R26" s="86"/>
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
-      <c r="V26" s="87"/>
+      <c r="V26" s="86"/>
       <c r="W26" s="74"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
-      <c r="Z26" s="88"/>
+      <c r="Z26" s="87"/>
       <c r="AA26" s="74"/>
     </row>
     <row r="27" spans="1:731" ht="15" customHeight="1">
@@ -3370,16 +3445,19 @@
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="I27" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J27" s="80"/>
       <c r="K27" s="78"/>
       <c r="L27" s="74"/>
       <c r="M27" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N27" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O27" s="50" t="s">
@@ -3387,15 +3465,15 @@
       </c>
       <c r="P27" s="74"/>
       <c r="Q27" s="74"/>
-      <c r="R27" s="87"/>
+      <c r="R27" s="86"/>
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
-      <c r="V27" s="87"/>
+      <c r="V27" s="86"/>
       <c r="W27" s="74"/>
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
-      <c r="Z27" s="88"/>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
@@ -4011,16 +4089,19 @@
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="I28" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J28" s="80"/>
       <c r="K28" s="78"/>
       <c r="L28" s="74"/>
       <c r="M28" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N28" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O28" s="50" t="s">
@@ -4028,15 +4109,15 @@
       </c>
       <c r="P28" s="74"/>
       <c r="Q28" s="74"/>
-      <c r="R28" s="87"/>
+      <c r="R28" s="86"/>
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
-      <c r="V28" s="87"/>
+      <c r="V28" s="86"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
       <c r="Y28" s="74"/>
-      <c r="Z28" s="88"/>
+      <c r="Z28" s="87"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="55"/>
       <c r="AC28" s="55"/>
@@ -4652,16 +4733,19 @@
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="I29" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J29" s="80"/>
       <c r="K29" s="78"/>
       <c r="L29" s="74"/>
       <c r="M29" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N29" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O29" s="50" t="s">
@@ -4669,15 +4753,15 @@
       </c>
       <c r="P29" s="74"/>
       <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
+      <c r="R29" s="125"/>
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
+      <c r="V29" s="125"/>
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
-      <c r="Z29" s="88"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="55"/>
       <c r="AC29" s="55"/>
@@ -5293,16 +5377,19 @@
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="73" t="str">
+      <c r="I30" s="73" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
       </c>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
       <c r="N30" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O30" s="50" t="s">
@@ -5310,15 +5397,15 @@
       </c>
       <c r="P30" s="74"/>
       <c r="Q30" s="74"/>
-      <c r="R30" s="87"/>
+      <c r="R30" s="86"/>
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
       <c r="Y30" s="74"/>
-      <c r="Z30" s="88"/>
+      <c r="Z30" s="87"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="55"/>
       <c r="AC30" s="55"/>
@@ -5934,16 +6021,19 @@
       <c r="F31" s="74"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="I31" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J31" s="80"/>
       <c r="K31" s="78"/>
       <c r="L31" s="74"/>
       <c r="M31" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N31" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O31" s="50" t="s">
@@ -5951,15 +6041,15 @@
       </c>
       <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
-      <c r="R31" s="87"/>
+      <c r="R31" s="86"/>
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
       <c r="Y31" s="74"/>
-      <c r="Z31" s="88"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="55"/>
       <c r="AC31" s="55"/>
@@ -6575,16 +6665,19 @@
       <c r="F32" s="74"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="I32" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
       <c r="M32" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N32" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O32" s="50" t="s">
@@ -6592,11 +6685,11 @@
       </c>
       <c r="P32" s="74"/>
       <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
+      <c r="R32" s="125"/>
       <c r="S32" s="74"/>
       <c r="T32" s="74"/>
       <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
+      <c r="V32" s="125"/>
       <c r="W32" s="74"/>
       <c r="X32" s="74"/>
       <c r="Y32" s="74"/>
@@ -7216,16 +7309,19 @@
       <c r="F33" s="74"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="I33" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J33" s="80"/>
       <c r="K33" s="78"/>
       <c r="L33" s="74"/>
       <c r="M33" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N33" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O33" s="50" t="s">
@@ -7233,15 +7329,15 @@
       </c>
       <c r="P33" s="74"/>
       <c r="Q33" s="74"/>
-      <c r="R33" s="87"/>
+      <c r="R33" s="86"/>
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
       <c r="Y33" s="74"/>
-      <c r="Z33" s="88"/>
+      <c r="Z33" s="87"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="55"/>
       <c r="AC33" s="55"/>
@@ -7857,16 +7953,19 @@
       <c r="F34" s="74"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="73" t="str">
+      <c r="I34" s="73" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
       </c>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
       <c r="N34" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O34" s="50" t="s">
@@ -7874,15 +7973,15 @@
       </c>
       <c r="P34" s="74"/>
       <c r="Q34" s="74"/>
-      <c r="R34" s="87"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
       <c r="Y34" s="74"/>
-      <c r="Z34" s="88"/>
+      <c r="Z34" s="87"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="55"/>
       <c r="AC34" s="55"/>
@@ -8498,16 +8597,19 @@
       <c r="F35" s="74"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="I35" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J35" s="80"/>
       <c r="K35" s="78"/>
       <c r="L35" s="74"/>
       <c r="M35" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N35" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O35" s="50" t="s">
@@ -8515,15 +8617,15 @@
       </c>
       <c r="P35" s="74"/>
       <c r="Q35" s="74"/>
-      <c r="R35" s="87"/>
+      <c r="R35" s="86"/>
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
       <c r="Y35" s="74"/>
-      <c r="Z35" s="88"/>
+      <c r="Z35" s="87"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="55"/>
       <c r="AC35" s="55"/>
@@ -9139,16 +9241,19 @@
       <c r="F36" s="74"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+      <c r="I36" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J36" s="80"/>
       <c r="K36" s="78"/>
       <c r="L36" s="74"/>
       <c r="M36" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="N36" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.xls</v>
       </c>
       <c r="O36" s="50" t="s">
@@ -9156,15 +9261,15 @@
       </c>
       <c r="P36" s="74"/>
       <c r="Q36" s="74"/>
-      <c r="R36" s="87"/>
+      <c r="R36" s="86"/>
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
       <c r="Y36" s="74"/>
-      <c r="Z36" s="88"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="55"/>
       <c r="AC36" s="55"/>
@@ -9780,16 +9885,19 @@
       <c r="F37" s="74"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
+      <c r="I37" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J37" s="74"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
       <c r="M37" s="73" t="str">
-        <f t="shared" ref="M37:N38" si="2">$B37&amp;".xls"</f>
+        <f t="shared" ref="M37:N38" si="3">$B37&amp;".xls"</f>
         <v>.xls</v>
       </c>
       <c r="N37" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="O37" s="50" t="s">
@@ -9797,11 +9905,11 @@
       </c>
       <c r="P37" s="74"/>
       <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
+      <c r="R37" s="125"/>
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
+      <c r="V37" s="125"/>
       <c r="W37" s="74"/>
       <c r="X37" s="74"/>
       <c r="Y37" s="74"/>
@@ -10421,16 +10529,19 @@
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
+      <c r="I38" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
       <c r="J38" s="80"/>
       <c r="K38" s="78"/>
       <c r="L38" s="74"/>
       <c r="M38" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="N38" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="O38" s="50" t="s">
@@ -10438,15 +10549,15 @@
       </c>
       <c r="P38" s="74"/>
       <c r="Q38" s="74"/>
-      <c r="R38" s="87"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
       <c r="Y38" s="74"/>
-      <c r="Z38" s="88"/>
+      <c r="Z38" s="87"/>
       <c r="AA38" s="74"/>
       <c r="AB38" s="55"/>
       <c r="AC38" s="55"/>
@@ -23120,15 +23231,15 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -23136,11 +23247,11 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -23154,83 +23265,83 @@
     <row r="5" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1"/>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="36"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="122" t="s">
+      <c r="N6" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="122" t="s">
+      <c r="O6" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="122" t="s">
+      <c r="P6" s="121" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="36"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="K7" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="122" t="s">
+      <c r="N7" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="122" t="s">
+      <c r="O7" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="121" t="s">
         <v>54</v>
       </c>
     </row>
